--- a/data/trans_dic/P31_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>92,95%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>86,49%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>88,5%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>91,44%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>92,77%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>88,11%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,37; 94,61</t>
+          <t>81,83; 93,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,39; 94,04</t>
+          <t>85,31; 94,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,82; 95,4</t>
+          <t>86,58; 95,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,37; 92,22</t>
+          <t>84,06; 95,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,38; 95,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,07; 95,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,24; 92,74</t>
+          <t>81,94; 92,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,53; 93,87</t>
+          <t>88,22; 95,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,47; 94,67</t>
+          <t>89,89; 95,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78,61; 91,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>83,9; 92,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>88,84; 93,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>89,85; 94,69</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>83,37; 92,1</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>89,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,74%</t>
+          <t>90,27%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>87,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>89,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>89,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>84,81%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,35; 92,45</t>
+          <t>85,83; 92,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,9; 92,82</t>
+          <t>85,76; 91,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,05; 91,76</t>
+          <t>85,07; 91,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,26; 89,77</t>
+          <t>77,05; 86,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,06; 92,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,55; 92,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,68; 90,45</t>
+          <t>82,02; 89,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,54; 91,97</t>
+          <t>86,98; 92,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,58; 91,63</t>
+          <t>87,6; 92,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83,86; 90,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>85,07; 90,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87,27; 91,32</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>87,08; 91,4</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>81,61; 87,65</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,33%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>89,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>83,34%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>84,72%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>82,99%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>89,27%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>81,07%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,9; 85,9</t>
+          <t>80,24; 89,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,61; 87,08</t>
+          <t>78,74; 86,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,05; 92,14</t>
+          <t>86,23; 92,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,17; 86,26</t>
+          <t>73,1; 84,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,59; 87,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,21; 91,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,06; 85,5</t>
+          <t>79,3; 87,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,55; 86,56</t>
+          <t>78,38; 86,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,59; 90,88</t>
+          <t>85,97; 91,36</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>79,11; 87,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>81,47; 87,5</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>80,19; 85,7</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>87,02; 91,16</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>77,66; 84,34</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,13%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>87,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>87,76%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>92,37%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>84,04%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,87; 89,71</t>
+          <t>84,77; 90,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,6; 90,28</t>
+          <t>88,17; 94,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,7; 91,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,42; 88,18</t>
+          <t>74,22; 85,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,51; 90,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,93; 91,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,77; 88,53</t>
+          <t>84,46; 90,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,67; 90,12</t>
+          <t>89,71; 95,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,99; 91,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83,94; 91,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>85,69; 89,71</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>89,89; 94,29</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>79,83; 87,08</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>87,87%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>88,49%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>89,79%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>86,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>89,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>90,53%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86,46%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>87,17%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>88,78%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>90,17%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>84,19%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>85,68; 89,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>86,46; 90,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>87,73; 91,89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78,63; 84,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>84,65; 88,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>87,34; 90,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88,95; 91,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>84,2; 88,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>85,63; 88,46</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>87,57; 89,91</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>88,85; 91,32</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>82,36; 85,86</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>627.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>300762</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>460362</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>672156</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>386557</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>368628</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>568827</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>832650</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>530253</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>669390</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1029189</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1504806</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>916810</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>277567; 318033</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>433816; 479242</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>628869; 693187</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>359332; 406135</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>341818; 386567</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>544378; 586636</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>805205; 853867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>481929; 561473</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>634619; 696204</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>999952; 1057222</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1457546; 1535899</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>867528; 958321</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>618.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>904.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1146.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>826244</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1066529</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1437005</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>848909</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>857849</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1086554</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1353508</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>915523</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1684092</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2153085</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2790513</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1764432</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>792704; 856594</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1027172; 1099824</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1378025; 1485574</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>797473; 895504</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>817786; 891830</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1052609; 1114276</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1313418; 1383406</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>876683; 949390</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1633997; 1730590</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2101326; 2198996</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2716126; 2850944</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1697886; 1823499</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>672.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>938.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>611140</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>702235</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>975158</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>634459</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>642499</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>762093</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1032029</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>691559</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1253639</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1464329</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2007187</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1326020</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>574203; 639937</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>664222; 731715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>938851; 1003406</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>589107; 679502</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>605896; 671242</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>721849; 796303</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>996775; 1059364</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>656473; 722196</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1205491; 1294733</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1414965; 1512163</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1956487; 2049676</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1270295; 1379565</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>591.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1256821</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>774901</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>810921</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1212552</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>698176</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>827371</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2469374</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1473076</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1638292</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1212204; 1299469</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>744892; 798438</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>748608; 857915</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1168770; 1250881</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>672834; 715448</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>789767; 859233</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2411209; 2524125</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1433631; 1503754</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1556250; 1697545</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>989.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1177.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1211.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>816.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1147.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1431.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1049.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2136.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2608.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2711.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1865.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2994967</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3004028</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3084318</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2680847</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3081528</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3115652</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3218187</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2964707</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6076495</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6119679</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6302506</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5645554</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2920217; 3058108</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2935048; 3064501</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3013528; 3156572</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2576530; 2761165</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3015203; 3146878</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3055448; 3170260</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3161993; 3264907</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2887445; 3028972</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5969063; 6165905</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6035801; 6197563</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6210351; 6382901</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>5523430; 5757968</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
